--- a/src/main/resources/excel-template/tookeen.xlsx
+++ b/src/main/resources/excel-template/tookeen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmy41\Desktop\hhzy\hhzy_crm\src\main\resources\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D509449B-CCB5-4E8D-AABE-9CE66E8C5550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EBF60B-B5D5-412D-86D6-C482520F251B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,36 +162,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -209,26 +185,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -238,19 +201,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -542,21 +499,20 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="7"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -584,9 +540,8 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -614,11 +569,10 @@
       <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
